--- a/Transaction.xlsx
+++ b/Transaction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Transaction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
-          <t>[nan]</t>
+          <t>['[\'[\\\'[\\\\\\\'[\\\\\\\\\\\\\\\'["[\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Gopal\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Dollarama\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', [\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Bread\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Eggs\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'], 5, \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'2022-10-1713:31:23\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\']"]\\\\\\\\\\\\\\\']\\\\\\\']\\\']\']']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['[\'[\\\'[\\\\\\\'[\\\\\\\\\\\\\\\'["[\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Gopal\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Pharmaprix\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', [\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Bread\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Eggs\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'], 17, \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'2022-10-1713:31:44\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\']"]\\\\\\\\\\\\\\\']\\\\\\\']\\\']\']']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['[\'[\\\'[\\\\\\\'["[\\\\\\\\\\\\\\\'Gopal\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\'Marche Newon\\\\\\\\\\\\\\\', [\\\\\\\\\\\\\\\'Chicken\\\\\\\\\\\\\\\'], 4, \\\\\\\\\\\\\\\'2022-10-1713:33:55\\\\\\\\\\\\\\\']"]\\\\\\\']\\\']\']']</t>
         </is>
       </c>
     </row>

--- a/Transaction.xlsx
+++ b/Transaction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,36 +440,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['[\'[\\\'[\\\\\\\'[\\\\\\\\\\\\\\\'["[\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Gopal\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Dollarama\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', [\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Bread\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Eggs\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'], 5, \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'2022-10-1713:31:23\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\']"]\\\\\\\\\\\\\\\']\\\\\\\']\\\']\']']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['[\'[\\\'[\\\\\\\'[\\\\\\\\\\\\\\\'["[\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Gopal\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Pharmaprix\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', [\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Bread\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'Eggs\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'], 17, \\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\'2022-10-1713:31:44\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\']"]\\\\\\\\\\\\\\\']\\\\\\\']\\\']\']']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['[\'[\\\'[\\\\\\\'["[\\\\\\\\\\\\\\\'Gopal\\\\\\\\\\\\\\\', \\\\\\\\\\\\\\\'Marche Newon\\\\\\\\\\\\\\\', [\\\\\\\\\\\\\\\'Chicken\\\\\\\\\\\\\\\'], 4, \\\\\\\\\\\\\\\'2022-10-1713:33:55\\\\\\\\\\\\\\\']"]\\\\\\\']\\\']\']']</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
